--- a/tables/fmt/continuous-modinput.xlsx
+++ b/tables/fmt/continuous-modinput.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="136">
   <si>
     <t>Year</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>weight_zscore</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
   <si>
     <t>1</t>
@@ -506,10 +509,13 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -518,13 +524,13 @@
         <v>47453.0</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="n" s="2">
         <v>43250.0</v>
@@ -544,10 +550,13 @@
       <c r="L2" t="n">
         <v>-1.2126445609143655</v>
       </c>
+      <c r="M2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -556,13 +565,13 @@
         <v>47453.0</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" t="n" s="2">
         <v>43283.0</v>
@@ -582,10 +591,13 @@
       <c r="L3" t="n">
         <v>-0.8439640321423807</v>
       </c>
+      <c r="M3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -594,13 +606,13 @@
         <v>47453.0</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" t="n" s="2">
         <v>43312.0</v>
@@ -620,10 +632,13 @@
       <c r="L4" t="n">
         <v>-0.3962805329192562</v>
       </c>
+      <c r="M4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
@@ -632,13 +647,13 @@
         <v>47453.0</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n" s="2">
         <v>43343.0</v>
@@ -658,10 +673,13 @@
       <c r="L5" t="n">
         <v>0.20940890720614766</v>
       </c>
+      <c r="M5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
         <v>1.0</v>
@@ -670,13 +688,13 @@
         <v>47453.0</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" t="n" s="2">
         <v>43374.0</v>
@@ -696,10 +714,13 @@
       <c r="L6" t="n">
         <v>0.8677669942989776</v>
       </c>
+      <c r="M6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
         <v>1.0</v>
@@ -708,13 +729,13 @@
         <v>47453.0</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>43404.0</v>
@@ -734,10 +755,13 @@
       <c r="L7" t="n">
         <v>1.3944534639732415</v>
       </c>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
@@ -746,13 +770,13 @@
         <v>47453.0</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" t="n" s="2">
         <v>43434.0</v>
@@ -772,10 +796,13 @@
       <c r="L8" t="n">
         <v>1.7367996692615129</v>
       </c>
+      <c r="M8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -784,13 +811,13 @@
         <v>47455.0</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" t="n" s="2">
         <v>43251.0</v>
@@ -810,10 +837,13 @@
       <c r="L9" t="n">
         <v>-1.423319148784071</v>
       </c>
+      <c r="M9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -822,13 +852,13 @@
         <v>47455.0</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" t="n" s="2">
         <v>43283.0</v>
@@ -848,10 +878,13 @@
       <c r="L10" t="n">
         <v>-1.0546386200120863</v>
       </c>
+      <c r="M10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -860,13 +893,13 @@
         <v>47455.0</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" t="n" s="2">
         <v>43312.0</v>
@@ -886,10 +919,13 @@
       <c r="L11" t="n">
         <v>-0.7912953851749542</v>
       </c>
+      <c r="M11" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>1.0</v>
@@ -898,13 +934,13 @@
         <v>47455.0</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G12" t="n" s="2">
         <v>43343.0</v>
@@ -924,10 +960,13 @@
       <c r="L12" t="n">
         <v>-0.3962805329192562</v>
       </c>
+      <c r="M12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
         <v>1.0</v>
@@ -936,13 +975,13 @@
         <v>47455.0</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" t="n" s="2">
         <v>43374.0</v>
@@ -962,10 +1001,13 @@
       <c r="L13" t="n">
         <v>0.025068642820155095</v>
       </c>
+      <c r="M13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
         <v>1.0</v>
@@ -974,13 +1016,13 @@
         <v>47455.0</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G14" t="n" s="2">
         <v>43404.0</v>
@@ -1000,10 +1042,13 @@
       <c r="L14" t="n">
         <v>0.3410805246247132</v>
       </c>
+      <c r="M14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -1012,13 +1057,13 @@
         <v>47455.0</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G15" t="n" s="2">
         <v>43434.0</v>
@@ -1038,10 +1083,13 @@
       <c r="L15" t="n">
         <v>0.3410805246247132</v>
       </c>
+      <c r="M15" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
         <v>1.0</v>
@@ -1050,13 +1098,13 @@
         <v>47457.0</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" t="n" s="2">
         <v>43252.0</v>
@@ -1076,10 +1124,13 @@
       <c r="L16" t="n">
         <v>-1.2653132078817917</v>
       </c>
+      <c r="M16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n">
         <v>1.0</v>
@@ -1088,13 +1139,13 @@
         <v>47457.0</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" t="n" s="2">
         <v>43283.0</v>
@@ -1114,10 +1165,13 @@
       <c r="L17" t="n">
         <v>-0.9493013260772333</v>
       </c>
+      <c r="M17" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>1.0</v>
@@ -1126,13 +1180,13 @@
         <v>47457.0</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G18" t="n" s="2">
         <v>43312.0</v>
@@ -1152,10 +1206,13 @@
       <c r="L18" t="n">
         <v>-0.4752835033703959</v>
       </c>
+      <c r="M18" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
@@ -1164,13 +1221,13 @@
         <v>47457.0</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" t="n" s="2">
         <v>43343.0</v>
@@ -1190,10 +1247,13 @@
       <c r="L19" t="n">
         <v>0.05140296630386832</v>
       </c>
+      <c r="M19" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
         <v>1.0</v>
@@ -1202,13 +1262,13 @@
         <v>47457.0</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" t="n" s="2">
         <v>43374.0</v>
@@ -1228,10 +1288,13 @@
       <c r="L20" t="n">
         <v>0.5254207890107058</v>
       </c>
+      <c r="M20" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
@@ -1240,13 +1303,13 @@
         <v>47457.0</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" t="n" s="2">
         <v>43404.0</v>
@@ -1266,10 +1329,13 @@
       <c r="L21" t="n">
         <v>0.8677669942989776</v>
       </c>
+      <c r="M21" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
@@ -1278,13 +1344,13 @@
         <v>47457.0</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" t="n" s="2">
         <v>43434.0</v>
@@ -1304,10 +1370,13 @@
       <c r="L22" t="n">
         <v>1.1837788761035357</v>
       </c>
+      <c r="M22" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1316,13 +1385,13 @@
         <v>47467.0</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" t="n" s="2">
         <v>43255.0</v>
@@ -1342,10 +1411,13 @@
       <c r="L23" t="n">
         <v>-1.5023221192352108</v>
       </c>
+      <c r="M23" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
@@ -1354,13 +1426,13 @@
         <v>47467.0</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" t="n" s="2">
         <v>43265.0</v>
@@ -1380,10 +1452,13 @@
       <c r="L24" t="n">
         <v>-1.3969848253003578</v>
       </c>
+      <c r="M24" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>1.0</v>
@@ -1392,13 +1467,13 @@
         <v>47467.0</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" t="n" s="2">
         <v>43272.0</v>
@@ -1418,10 +1493,13 @@
       <c r="L25" t="n">
         <v>-1.3179818548492181</v>
       </c>
+      <c r="M25" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -1430,13 +1508,13 @@
         <v>47467.0</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" t="n" s="2">
         <v>43287.0</v>
@@ -1456,10 +1534,13 @@
       <c r="L26" t="n">
         <v>-1.1073072669795128</v>
       </c>
+      <c r="M26" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
@@ -1468,13 +1549,13 @@
         <v>47467.0</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G27" t="n" s="2">
         <v>43318.0</v>
@@ -1494,10 +1575,13 @@
       <c r="L27" t="n">
         <v>-0.764961061691241</v>
       </c>
+      <c r="M27" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -1506,13 +1590,13 @@
         <v>47467.0</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" t="n" s="2">
         <v>43347.0</v>
@@ -1532,10 +1616,13 @@
       <c r="L28" t="n">
         <v>-0.3172775624681165</v>
       </c>
+      <c r="M28" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
         <v>1.0</v>
@@ -1544,13 +1631,13 @@
         <v>47467.0</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" t="n" s="2">
         <v>43409.0</v>
@@ -1570,10 +1657,13 @@
       <c r="L29" t="n">
         <v>0.5254207890107058</v>
       </c>
+      <c r="M29" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="n">
         <v>1.0</v>
@@ -1582,13 +1672,13 @@
         <v>47467.0</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G30" t="n" s="2">
         <v>43439.0</v>
@@ -1608,10 +1698,13 @@
       <c r="L30" t="n">
         <v>0.6307580829455587</v>
       </c>
+      <c r="M30" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="n">
         <v>1.0</v>
@@ -1620,13 +1713,13 @@
         <v>47470.0</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G31" t="n" s="2">
         <v>43256.0</v>
@@ -1646,10 +1739,13 @@
       <c r="L31" t="n">
         <v>-1.1599759139469392</v>
       </c>
+      <c r="M31" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
         <v>1.0</v>
@@ -1658,13 +1754,13 @@
         <v>47470.0</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G32" t="n" s="2">
         <v>43287.0</v>
@@ -1684,10 +1780,13 @@
       <c r="L32" t="n">
         <v>-0.9229670025935204</v>
       </c>
+      <c r="M32" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="n">
         <v>1.0</v>
@@ -1696,13 +1795,13 @@
         <v>47470.0</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G33" t="n" s="2">
         <v>43318.0</v>
@@ -1722,10 +1821,13 @@
       <c r="L33" t="n">
         <v>-0.501617826854109</v>
       </c>
+      <c r="M33" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="n">
         <v>1.0</v>
@@ -1734,13 +1836,13 @@
         <v>47470.0</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G34" t="n" s="2">
         <v>43347.0</v>
@@ -1760,10 +1862,13 @@
       <c r="L34" t="n">
         <v>-0.053934327630984574</v>
       </c>
+      <c r="M34" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="n">
         <v>1.0</v>
@@ -1772,13 +1877,13 @@
         <v>47470.0</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" t="n" s="2">
         <v>43409.0</v>
@@ -1798,10 +1903,13 @@
       <c r="L35" t="n">
         <v>0.6834267299129851</v>
       </c>
+      <c r="M35" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="n">
         <v>1.0</v>
@@ -1810,13 +1918,13 @@
         <v>47470.0</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G36" t="n" s="2">
         <v>43439.0</v>
@@ -1836,10 +1944,13 @@
       <c r="L36" t="n">
         <v>0.8941013177826903</v>
       </c>
+      <c r="M36" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="n">
         <v>1.0</v>
@@ -1848,13 +1959,13 @@
         <v>47487.0</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G37" t="n" s="2">
         <v>43262.0</v>
@@ -1874,10 +1985,13 @@
       <c r="L37" t="n">
         <v>-1.0019699730446598</v>
       </c>
+      <c r="M37" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="n">
         <v>1.0</v>
@@ -1886,13 +2000,13 @@
         <v>47487.0</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G38" t="n" s="2">
         <v>43292.0</v>
@@ -1912,10 +2026,13 @@
       <c r="L38" t="n">
         <v>-0.764961061691241</v>
       </c>
+      <c r="M38" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="n">
         <v>1.0</v>
@@ -1924,13 +2041,13 @@
         <v>47487.0</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G39" t="n" s="2">
         <v>43325.0</v>
@@ -1950,10 +2067,13 @@
       <c r="L39" t="n">
         <v>-0.2646089155006904</v>
       </c>
+      <c r="M39" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" t="n">
         <v>1.0</v>
@@ -1962,13 +2082,13 @@
         <v>47487.0</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G40" t="n" s="2">
         <v>43354.0</v>
@@ -1988,10 +2108,13 @@
       <c r="L40" t="n">
         <v>0.18307458372243443</v>
       </c>
+      <c r="M40" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="n">
         <v>1.0</v>
@@ -2000,13 +2123,13 @@
         <v>47487.0</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" t="n" s="2">
         <v>43384.0</v>
@@ -2026,10 +2149,13 @@
       <c r="L41" t="n">
         <v>0.6570924064292719</v>
       </c>
+      <c r="M41" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="n">
         <v>1.0</v>
@@ -2038,13 +2164,13 @@
         <v>47487.0</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G42" t="n" s="2">
         <v>43409.0</v>
@@ -2064,10 +2190,13 @@
       <c r="L42" t="n">
         <v>0.9467699647501168</v>
       </c>
+      <c r="M42" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="n">
         <v>1.0</v>
@@ -2076,13 +2205,13 @@
         <v>47487.0</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G43" t="n" s="2">
         <v>43439.0</v>
@@ -2102,10 +2231,13 @@
       <c r="L43" t="n">
         <v>0.9204356412664035</v>
       </c>
+      <c r="M43" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="n">
         <v>1.0</v>
@@ -2114,13 +2246,13 @@
         <v>47557.0</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G44" t="n" s="2">
         <v>43298.0</v>
@@ -2140,10 +2272,13 @@
       <c r="L44" t="n">
         <v>-1.6076594131700637</v>
       </c>
+      <c r="M44" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="n">
         <v>1.0</v>
@@ -2152,13 +2287,13 @@
         <v>47557.0</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G45" t="n" s="2">
         <v>43328.0</v>
@@ -2178,10 +2313,13 @@
       <c r="L45" t="n">
         <v>-1.3969848253003578</v>
       </c>
+      <c r="M45" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="n">
         <v>1.0</v>
@@ -2190,13 +2328,13 @@
         <v>47557.0</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" t="n" s="2">
         <v>43360.0</v>
@@ -2216,10 +2354,13 @@
       <c r="L46" t="n">
         <v>-0.9493013260772333</v>
       </c>
+      <c r="M46" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" t="n">
         <v>1.0</v>
@@ -2228,13 +2369,13 @@
         <v>47557.0</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G47" t="n" s="2">
         <v>43419.0</v>
@@ -2254,10 +2395,13 @@
       <c r="L47" t="n">
         <v>0.05140296630386832</v>
       </c>
+      <c r="M47" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="n">
         <v>1.0</v>
@@ -2266,13 +2410,13 @@
         <v>47557.0</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G48" t="n" s="2">
         <v>43451.0</v>
@@ -2292,10 +2436,13 @@
       <c r="L48" t="n">
         <v>0.6307580829455587</v>
       </c>
+      <c r="M48" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="n">
         <v>1.0</v>
@@ -2304,13 +2451,13 @@
         <v>47557.0</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G49" t="n" s="2">
         <v>43481.0</v>
@@ -2330,10 +2477,13 @@
       <c r="L49" t="n">
         <v>0.7887640238478381</v>
       </c>
+      <c r="M49" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" t="n">
         <v>2.0</v>
@@ -2342,13 +2492,13 @@
         <v>48429.0</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G50" t="n" s="2">
         <v>43728.0</v>
@@ -2368,10 +2518,13 @@
       <c r="L50" t="n">
         <v>-1.3969848253003578</v>
       </c>
+      <c r="M50" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="n">
         <v>2.0</v>
@@ -2380,13 +2533,13 @@
         <v>48429.0</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G51" t="n" s="2">
         <v>43759.0</v>
@@ -2406,10 +2559,13 @@
       <c r="L51" t="n">
         <v>-1.028304296528373</v>
       </c>
+      <c r="M51" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="n">
         <v>2.0</v>
@@ -2418,13 +2574,13 @@
         <v>48429.0</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G52" t="n" s="2">
         <v>43788.0</v>
@@ -2444,10 +2600,13 @@
       <c r="L52" t="n">
         <v>-0.6859580912401013</v>
       </c>
+      <c r="M52" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" t="n">
         <v>2.0</v>
@@ -2456,13 +2615,13 @@
         <v>48429.0</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G53" t="n" s="2">
         <v>43816.0</v>
@@ -2482,10 +2641,13 @@
       <c r="L53" t="n">
         <v>-0.34361188595182973</v>
       </c>
+      <c r="M53" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="n">
         <v>2.0</v>
@@ -2494,13 +2656,13 @@
         <v>48429.0</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G54" t="n" s="2">
         <v>43846.0</v>
@@ -2520,10 +2682,13 @@
       <c r="L54" t="n">
         <v>0.05140296630386832</v>
       </c>
+      <c r="M54" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" t="n">
         <v>2.0</v>
@@ -2532,13 +2697,13 @@
         <v>48429.0</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G55" t="n" s="2">
         <v>43881.0</v>
@@ -2558,10 +2723,13 @@
       <c r="L55" t="n">
         <v>0.6834267299129851</v>
       </c>
+      <c r="M55" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" t="n">
         <v>2.0</v>
@@ -2570,13 +2738,13 @@
         <v>48429.0</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G56" t="n" s="2">
         <v>43910.0</v>
@@ -2596,10 +2764,13 @@
       <c r="L56" t="n">
         <v>1.3154504935221019</v>
       </c>
+      <c r="M56" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" t="n">
         <v>3.0</v>
@@ -2608,13 +2779,13 @@
         <v>50674.0</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G57" t="n" s="2">
         <v>44712.0</v>
@@ -2634,10 +2805,13 @@
       <c r="L57" t="n">
         <v>-1.2389788843980787</v>
       </c>
+      <c r="M57" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" t="n">
         <v>3.0</v>
@@ -2646,13 +2820,13 @@
         <v>50674.0</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G58" t="n" s="2">
         <v>44742.0</v>
@@ -2672,10 +2846,13 @@
       <c r="L58" t="n">
         <v>-1.0019699730446598</v>
       </c>
+      <c r="M58" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" t="n">
         <v>3.0</v>
@@ -2684,13 +2861,13 @@
         <v>50674.0</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G59" t="n" s="2">
         <v>44774.0</v>
@@ -2710,10 +2887,13 @@
       <c r="L59" t="n">
         <v>-0.8439640321423807</v>
       </c>
+      <c r="M59" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" t="n">
         <v>3.0</v>
@@ -2722,13 +2902,13 @@
         <v>50674.0</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G60" t="n" s="2">
         <v>44804.0</v>
@@ -2748,10 +2928,13 @@
       <c r="L60" t="n">
         <v>-0.6069551207889617</v>
       </c>
+      <c r="M60" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" t="n">
         <v>3.0</v>
@@ -2760,13 +2943,13 @@
         <v>50674.0</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G61" t="n" s="2">
         <v>44834.0</v>
@@ -2786,10 +2969,13 @@
       <c r="L61" t="n">
         <v>-0.15927162156583746</v>
       </c>
+      <c r="M61" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" t="n">
         <v>3.0</v>
@@ -2798,13 +2984,13 @@
         <v>50674.0</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G62" t="n" s="2">
         <v>44865.0</v>
@@ -2824,10 +3010,13 @@
       <c r="L62" t="n">
         <v>0.3410805246247132</v>
       </c>
+      <c r="M62" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B63" t="n">
         <v>3.0</v>
@@ -2836,13 +3025,13 @@
         <v>50674.0</v>
       </c>
       <c r="D63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G63" t="n" s="2">
         <v>44872.0</v>
@@ -2862,10 +3051,13 @@
       <c r="L63" t="n">
         <v>0.49908646552699254</v>
       </c>
+      <c r="M63" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" t="n">
         <v>3.0</v>
@@ -2874,13 +3066,13 @@
         <v>50674.0</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G64" t="n" s="2">
         <v>44888.0</v>
@@ -2900,10 +3092,13 @@
       <c r="L64" t="n">
         <v>1.0257729352012563</v>
       </c>
+      <c r="M64" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B65" t="n">
         <v>3.0</v>
@@ -2912,13 +3107,13 @@
         <v>50674.0</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G65" t="n" s="2">
         <v>44902.0</v>
@@ -2938,10 +3133,13 @@
       <c r="L65" t="n">
         <v>0.7624297003641248</v>
       </c>
+      <c r="M65" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" t="n">
         <v>3.0</v>
@@ -2950,13 +3148,13 @@
         <v>50691.0</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G66" t="n" s="2">
         <v>44719.0</v>
@@ -2976,10 +3174,13 @@
       <c r="L66" t="n">
         <v>-1.3179818548492181</v>
       </c>
+      <c r="M66" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" t="n">
         <v>3.0</v>
@@ -2988,13 +3189,13 @@
         <v>50691.0</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G67" t="n" s="2">
         <v>44725.0</v>
@@ -3014,10 +3215,13 @@
       <c r="L67" t="n">
         <v>-1.1863102374306524</v>
       </c>
+      <c r="M67" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" t="n">
         <v>3.0</v>
@@ -3026,13 +3230,13 @@
         <v>50691.0</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G68" t="n" s="2">
         <v>44750.0</v>
@@ -3052,10 +3256,13 @@
       <c r="L68" t="n">
         <v>-0.8439640321423807</v>
       </c>
+      <c r="M68" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" t="n">
         <v>3.0</v>
@@ -3064,13 +3271,13 @@
         <v>50691.0</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n" s="2">
         <v>44782.0</v>
@@ -3090,10 +3297,13 @@
       <c r="L69" t="n">
         <v>-0.3172775624681165</v>
       </c>
+      <c r="M69" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" t="n">
         <v>3.0</v>
@@ -3102,13 +3312,13 @@
         <v>50691.0</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n" s="2">
         <v>44813.0</v>
@@ -3128,10 +3338,13 @@
       <c r="L70" t="n">
         <v>0.15674026023872123</v>
       </c>
+      <c r="M70" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
         <v>3.0</v>
@@ -3140,13 +3353,13 @@
         <v>50691.0</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n" s="2">
         <v>44841.0</v>
@@ -3166,10 +3379,13 @@
       <c r="L71" t="n">
         <v>0.42008349507585285</v>
       </c>
+      <c r="M71" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
         <v>3.0</v>
@@ -3178,13 +3394,13 @@
         <v>50691.0</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n" s="2">
         <v>44872.0</v>
@@ -3204,10 +3420,13 @@
       <c r="L72" t="n">
         <v>-0.15927162156583746</v>
       </c>
+      <c r="M72" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
         <v>3.0</v>
@@ -3216,13 +3435,13 @@
         <v>50691.0</v>
       </c>
       <c r="D73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n" s="2">
         <v>44873.0</v>
@@ -3242,10 +3461,13 @@
       <c r="L73" t="n">
         <v>0.15674026023872123</v>
       </c>
+      <c r="M73" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" t="n">
         <v>3.0</v>
@@ -3254,13 +3476,13 @@
         <v>50691.0</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G74" t="n" s="2">
         <v>44876.0</v>
@@ -3280,10 +3502,13 @@
       <c r="L74" t="n">
         <v>-0.269875780197433</v>
       </c>
+      <c r="M74" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B75" t="n">
         <v>3.0</v>
@@ -3292,13 +3517,13 @@
         <v>50691.0</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G75" t="n" s="2">
         <v>44877.0</v>
@@ -3318,10 +3543,13 @@
       <c r="L75" t="n">
         <v>-0.2435414567137198</v>
       </c>
+      <c r="M75" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" t="n">
         <v>3.0</v>
@@ -3330,13 +3558,13 @@
         <v>50691.0</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G76" t="n" s="2">
         <v>44879.0</v>
@@ -3356,10 +3584,13 @@
       <c r="L76" t="e">
         <v>#N/A</v>
       </c>
+      <c r="M76" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" t="n">
         <v>3.0</v>
@@ -3368,13 +3599,13 @@
         <v>50691.0</v>
       </c>
       <c r="D77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G77" t="n" s="2">
         <v>44882.0</v>
@@ -3394,10 +3625,13 @@
       <c r="L77" t="n">
         <v>-0.16980535095932275</v>
       </c>
+      <c r="M77" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" t="n">
         <v>3.0</v>
@@ -3406,13 +3640,13 @@
         <v>50731.0</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G78" t="n" s="2">
         <v>44736.0</v>
@@ -3432,10 +3666,13 @@
       <c r="L78" t="n">
         <v>-1.1073072669795128</v>
       </c>
+      <c r="M78" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" t="n">
         <v>3.0</v>
@@ -3444,13 +3681,13 @@
         <v>50731.0</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G79" t="n" s="2">
         <v>44742.0</v>
@@ -3470,10 +3707,13 @@
       <c r="L79" t="n">
         <v>-1.0546386200120863</v>
       </c>
+      <c r="M79" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" t="n">
         <v>3.0</v>
@@ -3482,13 +3722,13 @@
         <v>50731.0</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G80" t="n" s="2">
         <v>44743.0</v>
@@ -3508,10 +3748,13 @@
       <c r="L80" t="n">
         <v>-1.0546386200120863</v>
       </c>
+      <c r="M80" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" t="n">
         <v>3.0</v>
@@ -3520,13 +3763,13 @@
         <v>50731.0</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G81" t="n" s="2">
         <v>44764.0</v>
@@ -3546,10 +3789,13 @@
       <c r="L81" t="n">
         <v>-0.764961061691241</v>
       </c>
+      <c r="M81" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B82" t="n">
         <v>3.0</v>
@@ -3558,13 +3804,13 @@
         <v>50731.0</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G82" t="n" s="2">
         <v>44795.0</v>
@@ -3584,10 +3830,13 @@
       <c r="L82" t="n">
         <v>-0.2646089155006904</v>
       </c>
+      <c r="M82" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B83" t="n">
         <v>3.0</v>
@@ -3596,13 +3845,13 @@
         <v>50731.0</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G83" t="n" s="2">
         <v>44826.0</v>
@@ -3622,10 +3871,13 @@
       <c r="L83" t="n">
         <v>0.130405936755008</v>
       </c>
+      <c r="M83" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" t="n">
         <v>3.0</v>
@@ -3634,13 +3886,13 @@
         <v>50731.0</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G84" t="n" s="2">
         <v>44828.0</v>
@@ -3660,10 +3912,13 @@
       <c r="L84" t="n">
         <v>0.20940890720614766</v>
       </c>
+      <c r="M84" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B85" t="n">
         <v>3.0</v>
@@ -3672,13 +3927,13 @@
         <v>50731.0</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G85" t="n" s="2">
         <v>44855.0</v>
@@ -3698,10 +3953,13 @@
       <c r="L85" t="n">
         <v>0.7097610533966984</v>
       </c>
+      <c r="M85" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" t="n">
         <v>3.0</v>
@@ -3710,13 +3968,13 @@
         <v>50731.0</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G86" t="n" s="2">
         <v>44887.0</v>
@@ -3736,10 +3994,13 @@
       <c r="L86" t="n">
         <v>1.1574445526198225</v>
       </c>
+      <c r="M86" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B87" t="n">
         <v>3.0</v>
@@ -3748,13 +4009,13 @@
         <v>50731.0</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G87" t="n" s="2">
         <v>44895.0</v>
@@ -3774,10 +4035,13 @@
       <c r="L87" t="n">
         <v>1.210113199587249</v>
       </c>
+      <c r="M87" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" t="n">
         <v>3.0</v>
@@ -3786,13 +4050,13 @@
         <v>50731.0</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E88" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G88" t="n" s="2">
         <v>44902.0</v>
@@ -3812,10 +4076,13 @@
       <c r="L88" t="n">
         <v>1.2627818465546754</v>
       </c>
+      <c r="M88" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" t="n">
         <v>3.0</v>
@@ -3824,13 +4091,13 @@
         <v>50731.0</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G89" t="n" s="2">
         <v>44924.0</v>
@@ -3850,10 +4117,13 @@
       <c r="L89" t="n">
         <v>1.4997907579080945</v>
       </c>
+      <c r="M89" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90" t="n">
         <v>3.0</v>
@@ -3862,13 +4132,13 @@
         <v>50740.0</v>
       </c>
       <c r="D90" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G90" t="n" s="2">
         <v>44742.0</v>
@@ -3888,10 +4158,13 @@
       <c r="L90" t="n">
         <v>-1.275846937275277</v>
       </c>
+      <c r="M90" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B91" t="n">
         <v>3.0</v>
@@ -3900,13 +4173,13 @@
         <v>50740.0</v>
       </c>
       <c r="D91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G91" t="n" s="2">
         <v>44748.0</v>
@@ -3926,10 +4199,13 @@
       <c r="L91" t="n">
         <v>-1.1863102374306524</v>
       </c>
+      <c r="M91" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B92" t="n">
         <v>3.0</v>
@@ -3938,13 +4214,13 @@
         <v>50740.0</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E92" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G92" t="n" s="2">
         <v>44749.0</v>
@@ -3964,10 +4240,13 @@
       <c r="L92" t="n">
         <v>-1.1863102374306524</v>
       </c>
+      <c r="M92" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" t="n">
         <v>3.0</v>
@@ -3976,13 +4255,13 @@
         <v>50740.0</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G93" t="n" s="2">
         <v>44774.0</v>
@@ -4002,10 +4281,13 @@
       <c r="L93" t="n">
         <v>-0.8439640321423807</v>
       </c>
+      <c r="M93" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B94" t="n">
         <v>3.0</v>
@@ -4014,13 +4296,13 @@
         <v>50740.0</v>
       </c>
       <c r="D94" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G94" t="n" s="2">
         <v>44804.0</v>
@@ -4040,10 +4322,13 @@
       <c r="L94" t="n">
         <v>-0.36994620943554296</v>
       </c>
+      <c r="M94" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B95" t="n">
         <v>3.0</v>
@@ -4052,13 +4337,13 @@
         <v>50740.0</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F95" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G95" t="n" s="2">
         <v>44834.0</v>
@@ -4078,10 +4363,13 @@
       <c r="L95" t="n">
         <v>-0.053934327630984574</v>
       </c>
+      <c r="M95" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" t="n">
         <v>3.0</v>
@@ -4090,13 +4378,13 @@
         <v>50740.0</v>
       </c>
       <c r="D96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G96" t="n" s="2">
         <v>44865.0</v>
@@ -4116,10 +4404,13 @@
       <c r="L96" t="n">
         <v>0.3410805246247132</v>
       </c>
+      <c r="M96" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" t="n">
         <v>3.0</v>
@@ -4128,13 +4419,13 @@
         <v>50740.0</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G97" t="n" s="2">
         <v>44895.0</v>
@@ -4154,10 +4445,13 @@
       <c r="L97" t="n">
         <v>0.6834267299129851</v>
       </c>
+      <c r="M97" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B98" t="n">
         <v>3.0</v>
@@ -4166,13 +4460,13 @@
         <v>50740.0</v>
       </c>
       <c r="D98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G98" t="n" s="2">
         <v>44902.0</v>
@@ -4192,10 +4486,13 @@
       <c r="L98" t="n">
         <v>0.7887640238478381</v>
       </c>
+      <c r="M98" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B99" t="n">
         <v>3.0</v>
@@ -4204,13 +4501,13 @@
         <v>50740.0</v>
       </c>
       <c r="D99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G99" t="n" s="2">
         <v>44924.0</v>
@@ -4230,10 +4527,13 @@
       <c r="L99" t="n">
         <v>1.104775905652396</v>
       </c>
+      <c r="M99" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B100" t="n">
         <v>3.0</v>
@@ -4242,13 +4542,13 @@
         <v>50752.0</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F100" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G100" t="n" s="2">
         <v>44747.0</v>
@@ -4268,10 +4568,13 @@
       <c r="L100" t="n">
         <v>-1.4759877957514975</v>
       </c>
+      <c r="M100" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B101" t="n">
         <v>3.0</v>
@@ -4280,13 +4583,13 @@
         <v>50752.0</v>
       </c>
       <c r="D101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G101" t="n" s="2">
         <v>44753.0</v>
@@ -4306,10 +4609,13 @@
       <c r="L101" t="n">
         <v>-1.423319148784071</v>
       </c>
+      <c r="M101" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B102" t="n">
         <v>3.0</v>
@@ -4318,13 +4624,13 @@
         <v>50752.0</v>
       </c>
       <c r="D102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G102" t="n" s="2">
         <v>44755.0</v>
@@ -4344,10 +4650,13 @@
       <c r="L102" t="n">
         <v>-1.4496534722677843</v>
       </c>
+      <c r="M102" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B103" t="n">
         <v>3.0</v>
@@ -4356,13 +4665,13 @@
         <v>50752.0</v>
       </c>
       <c r="D103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G103" t="n" s="2">
         <v>44778.0</v>
@@ -4382,10 +4691,13 @@
       <c r="L103" t="n">
         <v>-1.2389788843980787</v>
       </c>
+      <c r="M103" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" t="n">
         <v>3.0</v>
@@ -4394,13 +4706,13 @@
         <v>50752.0</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G104" t="n" s="2">
         <v>44810.0</v>
@@ -4420,10 +4732,13 @@
       <c r="L104" t="n">
         <v>-0.7386267382075278</v>
       </c>
+      <c r="M104" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B105" t="n">
         <v>3.0</v>
@@ -4432,13 +4747,13 @@
         <v>50752.0</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G105" t="n" s="2">
         <v>44840.0</v>
@@ -4458,10 +4773,13 @@
       <c r="L105" t="n">
         <v>-0.1856059450495507</v>
       </c>
+      <c r="M105" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B106" t="n">
         <v>3.0</v>
@@ -4470,13 +4788,13 @@
         <v>50752.0</v>
       </c>
       <c r="D106" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G106" t="n" s="2">
         <v>44841.0</v>
@@ -4496,10 +4814,13 @@
       <c r="L106" t="n">
         <v>-0.1856059450495507</v>
       </c>
+      <c r="M106" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B107" t="n">
         <v>3.0</v>
@@ -4508,13 +4829,13 @@
         <v>50752.0</v>
       </c>
       <c r="D107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G107" t="n" s="2">
         <v>44872.0</v>
@@ -4534,10 +4855,13 @@
       <c r="L107" t="n">
         <v>0.2357432306898603</v>
       </c>
+      <c r="M107" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B108" t="n">
         <v>3.0</v>
@@ -4546,13 +4870,13 @@
         <v>50752.0</v>
       </c>
       <c r="D108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G108" t="n" s="2">
         <v>44900.0</v>
@@ -4572,10 +4896,13 @@
       <c r="L108" t="n">
         <v>0.6834267299129851</v>
       </c>
+      <c r="M108" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B109" t="n">
         <v>3.0</v>
@@ -4584,13 +4911,13 @@
         <v>50752.0</v>
       </c>
       <c r="D109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G109" t="n" s="2">
         <v>44908.0</v>
@@ -4610,10 +4937,13 @@
       <c r="L109" t="n">
         <v>0.8941013177826903</v>
       </c>
+      <c r="M109" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B110" t="n">
         <v>3.0</v>
@@ -4622,13 +4952,13 @@
         <v>50752.0</v>
       </c>
       <c r="D110" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G110" t="n" s="2">
         <v>44938.0</v>
@@ -4648,10 +4978,13 @@
       <c r="L110" t="n">
         <v>1.1574445526198225</v>
       </c>
+      <c r="M110" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B111" t="n">
         <v>3.0</v>
@@ -4660,13 +4993,13 @@
         <v>50776.0</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G111" t="n" s="2">
         <v>44763.0</v>
@@ -4686,10 +5019,13 @@
       <c r="L111" t="n">
         <v>-1.3706505018166446</v>
       </c>
+      <c r="M111" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" t="n">
         <v>3.0</v>
@@ -4698,13 +5034,13 @@
         <v>50776.0</v>
       </c>
       <c r="D112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G112" t="n" s="2">
         <v>44769.0</v>
@@ -4724,10 +5060,13 @@
       <c r="L112" t="n">
         <v>-1.3443161783329314</v>
       </c>
+      <c r="M112" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B113" t="n">
         <v>3.0</v>
@@ -4736,13 +5075,13 @@
         <v>50776.0</v>
       </c>
       <c r="D113" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G113" t="n" s="2">
         <v>44771.0</v>
@@ -4762,10 +5101,13 @@
       <c r="L113" t="n">
         <v>-1.3179818548492181</v>
       </c>
+      <c r="M113" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B114" t="n">
         <v>3.0</v>
@@ -4774,13 +5116,13 @@
         <v>50776.0</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G114" t="n" s="2">
         <v>44795.0</v>
@@ -4800,10 +5142,13 @@
       <c r="L114" t="n">
         <v>-1.1599759139469392</v>
       </c>
+      <c r="M114" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B115" t="n">
         <v>3.0</v>
@@ -4812,13 +5157,13 @@
         <v>50776.0</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G115" t="n" s="2">
         <v>44802.0</v>
@@ -4838,10 +5183,13 @@
       <c r="L115" t="n">
         <v>-1.1073072669795128</v>
       </c>
+      <c r="M115" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B116" t="n">
         <v>3.0</v>
@@ -4850,13 +5198,13 @@
         <v>50776.0</v>
       </c>
       <c r="D116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G116" t="n" s="2">
         <v>44826.0</v>
@@ -4876,10 +5224,13 @@
       <c r="L116" t="n">
         <v>-0.8439640321423807</v>
       </c>
+      <c r="M116" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B117" t="n">
         <v>3.0</v>
@@ -4888,13 +5239,13 @@
         <v>50776.0</v>
       </c>
       <c r="D117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F117" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G117" t="n" s="2">
         <v>44855.0</v>
@@ -4914,10 +5265,13 @@
       <c r="L117" t="n">
         <v>-0.5542864738215355</v>
       </c>
+      <c r="M117" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B118" t="n">
         <v>3.0</v>
@@ -4926,13 +5280,13 @@
         <v>50776.0</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G118" t="n" s="2">
         <v>44887.0</v>
@@ -4952,10 +5306,13 @@
       <c r="L118" t="n">
         <v>0.025068642820155095</v>
       </c>
+      <c r="M118" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B119" t="n">
         <v>3.0</v>
@@ -4964,13 +5321,13 @@
         <v>50776.0</v>
       </c>
       <c r="D119" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G119" t="n" s="2">
         <v>44908.0</v>
@@ -4990,10 +5347,13 @@
       <c r="L119" t="n">
         <v>0.3937491715921396</v>
       </c>
+      <c r="M119" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B120" t="n">
         <v>3.0</v>
@@ -5002,13 +5362,13 @@
         <v>50776.0</v>
       </c>
       <c r="D120" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G120" t="n" s="2">
         <v>44938.0</v>
@@ -5027,6 +5387,9 @@
       </c>
       <c r="L120" t="n">
         <v>0.7887640238478381</v>
+      </c>
+      <c r="M120" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/tables/fmt/continuous-modinput.xlsx
+++ b/tables/fmt/continuous-modinput.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="101">
   <si>
     <t>Year</t>
   </si>
@@ -305,112 +305,7 @@
     <t>85</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
   <si>
     <t>Control</t>
@@ -524,13 +419,13 @@
         <v>47453.0</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n" s="2">
         <v>43250.0</v>
@@ -551,7 +446,7 @@
         <v>-1.2126445609143655</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -565,13 +460,13 @@
         <v>47453.0</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n" s="2">
         <v>43283.0</v>
@@ -592,7 +487,7 @@
         <v>-0.8439640321423807</v>
       </c>
       <c r="M3" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -606,13 +501,13 @@
         <v>47453.0</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n" s="2">
         <v>43312.0</v>
@@ -633,7 +528,7 @@
         <v>-0.3962805329192562</v>
       </c>
       <c r="M4" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -647,13 +542,13 @@
         <v>47453.0</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n" s="2">
         <v>43343.0</v>
@@ -674,7 +569,7 @@
         <v>0.20940890720614766</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -688,13 +583,13 @@
         <v>47453.0</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n" s="2">
         <v>43374.0</v>
@@ -715,7 +610,7 @@
         <v>0.8677669942989776</v>
       </c>
       <c r="M6" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -729,13 +624,13 @@
         <v>47453.0</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>43404.0</v>
@@ -756,7 +651,7 @@
         <v>1.3944534639732415</v>
       </c>
       <c r="M7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -770,13 +665,13 @@
         <v>47453.0</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n" s="2">
         <v>43434.0</v>
@@ -797,7 +692,7 @@
         <v>1.7367996692615129</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -808,22 +703,22 @@
         <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>47455.0</v>
+        <v>47467.0</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n" s="2">
+        <v>43255.0</v>
+      </c>
+      <c r="H9" t="n" s="2">
         <v>43251.0</v>
-      </c>
-      <c r="H9" t="n" s="2">
-        <v>43247.0</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -832,13 +727,13 @@
         <v>4.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.423319148784071</v>
+        <v>-1.5023221192352108</v>
       </c>
       <c r="M9" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -849,37 +744,37 @@
         <v>1.0</v>
       </c>
       <c r="C10" t="n">
-        <v>47455.0</v>
+        <v>47467.0</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>43283.0</v>
+        <v>43265.0</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>43247.0</v>
+        <v>43251.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>36.0</v>
+        <v>14.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.0546386200120863</v>
+        <v>-1.3969848253003578</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -890,37 +785,37 @@
         <v>1.0</v>
       </c>
       <c r="C11" t="n">
-        <v>47455.0</v>
+        <v>47467.0</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>43312.0</v>
+        <v>43272.0</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>43247.0</v>
+        <v>43251.0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.7912953851749542</v>
+        <v>-1.3179818548492181</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -931,37 +826,37 @@
         <v>1.0</v>
       </c>
       <c r="C12" t="n">
-        <v>47455.0</v>
+        <v>47467.0</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>43343.0</v>
+        <v>43287.0</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>43247.0</v>
+        <v>43251.0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>96.0</v>
+        <v>36.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3962805329192562</v>
+        <v>-1.1073072669795128</v>
       </c>
       <c r="M12" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -972,37 +867,37 @@
         <v>1.0</v>
       </c>
       <c r="C13" t="n">
-        <v>47455.0</v>
+        <v>47467.0</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>43374.0</v>
+        <v>43318.0</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>43247.0</v>
+        <v>43251.0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J13" t="n">
-        <v>127.0</v>
+        <v>67.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="L13" t="n">
-        <v>0.025068642820155095</v>
+        <v>-0.764961061691241</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1013,37 +908,37 @@
         <v>1.0</v>
       </c>
       <c r="C14" t="n">
-        <v>47455.0</v>
+        <v>47467.0</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>43404.0</v>
+        <v>43347.0</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>43247.0</v>
+        <v>43251.0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J14" t="n">
-        <v>157.0</v>
+        <v>96.0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3410805246247132</v>
+        <v>-0.3172775624681165</v>
       </c>
       <c r="M14" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1054,37 +949,37 @@
         <v>1.0</v>
       </c>
       <c r="C15" t="n">
-        <v>47455.0</v>
+        <v>47467.0</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>43434.0</v>
+        <v>43409.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>43247.0</v>
+        <v>43251.0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="J15" t="n">
-        <v>187.0</v>
+        <v>158.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3410805246247132</v>
+        <v>0.5254207890107058</v>
       </c>
       <c r="M15" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -1095,37 +990,37 @@
         <v>1.0</v>
       </c>
       <c r="C16" t="n">
-        <v>47457.0</v>
+        <v>47467.0</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>43252.0</v>
+        <v>43439.0</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>43248.0</v>
+        <v>43251.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.0</v>
+        <v>188.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.56</v>
+        <v>1.28</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.2653132078817917</v>
+        <v>0.6307580829455587</v>
       </c>
       <c r="M16" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -1136,37 +1031,37 @@
         <v>1.0</v>
       </c>
       <c r="C17" t="n">
-        <v>47457.0</v>
+        <v>47470.0</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>43283.0</v>
+        <v>43256.0</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>43248.0</v>
+        <v>43252.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>35.0</v>
+        <v>4.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.9493013260772333</v>
+        <v>-1.1599759139469392</v>
       </c>
       <c r="M17" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -1177,37 +1072,37 @@
         <v>1.0</v>
       </c>
       <c r="C18" t="n">
-        <v>47457.0</v>
+        <v>47470.0</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>43312.0</v>
+        <v>43287.0</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>43248.0</v>
+        <v>43252.0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.0</v>
+        <v>35.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.86</v>
+        <v>0.69</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.4752835033703959</v>
+        <v>-0.9229670025935204</v>
       </c>
       <c r="M18" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -1218,37 +1113,37 @@
         <v>1.0</v>
       </c>
       <c r="C19" t="n">
-        <v>47457.0</v>
+        <v>47470.0</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>43343.0</v>
+        <v>43318.0</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>43248.0</v>
+        <v>43252.0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J19" t="n">
-        <v>95.0</v>
+        <v>66.0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05140296630386832</v>
+        <v>-0.501617826854109</v>
       </c>
       <c r="M19" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1259,37 +1154,37 @@
         <v>1.0</v>
       </c>
       <c r="C20" t="n">
-        <v>47457.0</v>
+        <v>47470.0</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>43374.0</v>
+        <v>43347.0</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>43248.0</v>
+        <v>43252.0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J20" t="n">
-        <v>126.0</v>
+        <v>95.0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5254207890107058</v>
+        <v>-0.053934327630984574</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -1300,37 +1195,37 @@
         <v>1.0</v>
       </c>
       <c r="C21" t="n">
-        <v>47457.0</v>
+        <v>47470.0</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>43404.0</v>
+        <v>43409.0</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>43248.0</v>
+        <v>43252.0</v>
       </c>
       <c r="I21" t="n">
         <v>5.0</v>
       </c>
       <c r="J21" t="n">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8677669942989776</v>
+        <v>0.6834267299129851</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1341,37 +1236,37 @@
         <v>1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>47457.0</v>
+        <v>47470.0</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>43434.0</v>
+        <v>43439.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>43248.0</v>
+        <v>43252.0</v>
       </c>
       <c r="I22" t="n">
         <v>6.0</v>
       </c>
       <c r="J22" t="n">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="L22" t="n">
-        <v>1.1837788761035357</v>
+        <v>0.8941013177826903</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -1379,40 +1274,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C23" t="n">
-        <v>47467.0</v>
+        <v>50674.0</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>43255.0</v>
+        <v>44712.0</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>43251.0</v>
+        <v>44707.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.5023221192352108</v>
+        <v>-1.2389788843980787</v>
       </c>
       <c r="M23" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -1420,40 +1315,40 @@
         <v>34</v>
       </c>
       <c r="B24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50674.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n" s="2">
+        <v>44742.0</v>
+      </c>
+      <c r="H24" t="n" s="2">
+        <v>44707.0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1.0</v>
       </c>
-      <c r="C24" t="n">
-        <v>47467.0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" t="n" s="2">
-        <v>43265.0</v>
-      </c>
-      <c r="H24" t="n" s="2">
-        <v>43251.0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J24" t="n">
-        <v>14.0</v>
+        <v>35.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.3969848253003578</v>
+        <v>-1.0019699730446598</v>
       </c>
       <c r="M24" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1461,40 +1356,40 @@
         <v>35</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C25" t="n">
-        <v>47467.0</v>
+        <v>50674.0</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>43272.0</v>
+        <v>44774.0</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>43251.0</v>
+        <v>44707.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J25" t="n">
-        <v>21.0</v>
+        <v>67.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.3179818548492181</v>
+        <v>-0.8439640321423807</v>
       </c>
       <c r="M25" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -1502,40 +1397,40 @@
         <v>36</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C26" t="n">
-        <v>47467.0</v>
+        <v>50674.0</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>43287.0</v>
+        <v>44804.0</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>43251.0</v>
+        <v>44707.0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J26" t="n">
-        <v>36.0</v>
+        <v>97.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.62</v>
+        <v>0.81</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.1073072669795128</v>
+        <v>-0.6069551207889617</v>
       </c>
       <c r="M26" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -1543,40 +1438,40 @@
         <v>37</v>
       </c>
       <c r="B27" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C27" t="n">
-        <v>47467.0</v>
+        <v>50674.0</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>43318.0</v>
+        <v>44834.0</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>43251.0</v>
+        <v>44707.0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J27" t="n">
-        <v>67.0</v>
+        <v>127.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.764961061691241</v>
+        <v>-0.15927162156583746</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -1584,40 +1479,40 @@
         <v>38</v>
       </c>
       <c r="B28" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C28" t="n">
-        <v>47467.0</v>
+        <v>50674.0</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>43347.0</v>
+        <v>44865.0</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>43251.0</v>
+        <v>44707.0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="J28" t="n">
-        <v>96.0</v>
+        <v>158.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.3172775624681165</v>
+        <v>0.3410805246247132</v>
       </c>
       <c r="M28" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -1625,40 +1520,40 @@
         <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C29" t="n">
-        <v>47467.0</v>
+        <v>50674.0</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>43409.0</v>
+        <v>44872.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>43251.0</v>
+        <v>44707.0</v>
       </c>
       <c r="I29" t="n">
         <v>5.0</v>
       </c>
       <c r="J29" t="n">
-        <v>158.0</v>
+        <v>165.0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5254207890107058</v>
+        <v>0.49908646552699254</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -1666,40 +1561,40 @@
         <v>40</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C30" t="n">
-        <v>47467.0</v>
+        <v>50674.0</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>43439.0</v>
+        <v>44888.0</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>43251.0</v>
+        <v>44707.0</v>
       </c>
       <c r="I30" t="n">
         <v>6.0</v>
       </c>
       <c r="J30" t="n">
-        <v>188.0</v>
+        <v>181.0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6307580829455587</v>
+        <v>1.0257729352012563</v>
       </c>
       <c r="M30" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1707,40 +1602,40 @@
         <v>41</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C31" t="n">
-        <v>47470.0</v>
+        <v>50674.0</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>43256.0</v>
+        <v>44902.0</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>43252.0</v>
+        <v>44707.0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.0</v>
+        <v>195.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.1599759139469392</v>
+        <v>0.7624297003641248</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -1748,40 +1643,40 @@
         <v>42</v>
       </c>
       <c r="B32" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C32" t="n">
-        <v>47470.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>43287.0</v>
+        <v>44719.0</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>43252.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>35.0</v>
+        <v>4.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.69</v>
+        <v>0.54</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.9229670025935204</v>
+        <v>-1.3179818548492181</v>
       </c>
       <c r="M32" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -1789,40 +1684,40 @@
         <v>43</v>
       </c>
       <c r="B33" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C33" t="n">
-        <v>47470.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>43318.0</v>
+        <v>44725.0</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>43252.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>66.0</v>
+        <v>10.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.501617826854109</v>
+        <v>-1.1863102374306524</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -1830,40 +1725,40 @@
         <v>44</v>
       </c>
       <c r="B34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>50691.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="n" s="2">
+        <v>44750.0</v>
+      </c>
+      <c r="H34" t="n" s="2">
+        <v>44715.0</v>
+      </c>
+      <c r="I34" t="n">
         <v>1.0</v>
       </c>
-      <c r="C34" t="n">
-        <v>47470.0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" t="n" s="2">
-        <v>43347.0</v>
-      </c>
-      <c r="H34" t="n" s="2">
-        <v>43252.0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.0</v>
-      </c>
       <c r="J34" t="n">
-        <v>95.0</v>
+        <v>35.0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.02</v>
+        <v>0.72</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.053934327630984574</v>
+        <v>-0.8439640321423807</v>
       </c>
       <c r="M34" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1871,40 +1766,40 @@
         <v>45</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C35" t="n">
-        <v>47470.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n" s="2">
-        <v>43409.0</v>
+        <v>44782.0</v>
       </c>
       <c r="H35" t="n" s="2">
-        <v>43252.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="J35" t="n">
-        <v>157.0</v>
+        <v>67.0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.3</v>
+        <v>0.92</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6834267299129851</v>
+        <v>-0.3172775624681165</v>
       </c>
       <c r="M35" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -1912,40 +1807,40 @@
         <v>46</v>
       </c>
       <c r="B36" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C36" t="n">
-        <v>47470.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n" s="2">
-        <v>43439.0</v>
+        <v>44813.0</v>
       </c>
       <c r="H36" t="n" s="2">
-        <v>43252.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="J36" t="n">
-        <v>187.0</v>
+        <v>98.0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8941013177826903</v>
+        <v>0.15674026023872123</v>
       </c>
       <c r="M36" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
@@ -1953,40 +1848,40 @@
         <v>47</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C37" t="n">
-        <v>47487.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n" s="2">
-        <v>43262.0</v>
+        <v>44841.0</v>
       </c>
       <c r="H37" t="n" s="2">
-        <v>43258.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.0</v>
+        <v>126.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.66</v>
+        <v>1.2</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.0019699730446598</v>
+        <v>0.42008349507585285</v>
       </c>
       <c r="M37" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -1994,40 +1889,40 @@
         <v>48</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" t="n">
-        <v>47487.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n" s="2">
-        <v>43292.0</v>
+        <v>44872.0</v>
       </c>
       <c r="H38" t="n" s="2">
-        <v>43258.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="J38" t="n">
-        <v>34.0</v>
+        <v>157.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.764961061691241</v>
+        <v>-0.15927162156583746</v>
       </c>
       <c r="M38" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -2035,40 +1930,40 @@
         <v>49</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C39" t="n">
-        <v>47487.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n" s="2">
-        <v>43325.0</v>
+        <v>44873.0</v>
       </c>
       <c r="H39" t="n" s="2">
-        <v>43258.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="J39" t="n">
-        <v>67.0</v>
+        <v>158.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.94</v>
+        <v>1.1</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.2646089155006904</v>
+        <v>0.15674026023872123</v>
       </c>
       <c r="M39" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -2076,40 +1971,40 @@
         <v>50</v>
       </c>
       <c r="B40" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C40" t="n">
-        <v>47487.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n" s="2">
-        <v>43354.0</v>
+        <v>44876.0</v>
       </c>
       <c r="H40" t="n" s="2">
-        <v>43258.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I40" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="J40" t="n">
-        <v>96.0</v>
+        <v>161.0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.11</v>
+        <v>0.938</v>
       </c>
       <c r="L40" t="n">
-        <v>0.18307458372243443</v>
+        <v>-0.269875780197433</v>
       </c>
       <c r="M40" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -2117,40 +2012,40 @@
         <v>51</v>
       </c>
       <c r="B41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C41" t="n">
-        <v>47487.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n" s="2">
-        <v>43384.0</v>
+        <v>44877.0</v>
       </c>
       <c r="H41" t="n" s="2">
-        <v>43258.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J41" t="n">
-        <v>126.0</v>
+        <v>162.0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.29</v>
+        <v>0.948</v>
       </c>
       <c r="L41" t="n">
-        <v>0.6570924064292719</v>
+        <v>-0.2435414567137198</v>
       </c>
       <c r="M41" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -2158,40 +2053,40 @@
         <v>52</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C42" t="n">
-        <v>47487.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n" s="2">
-        <v>43409.0</v>
+        <v>44879.0</v>
       </c>
       <c r="H42" t="n" s="2">
-        <v>43258.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I42" t="n">
         <v>5.0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.9467699647501168</v>
+        <v>164.0</v>
+      </c>
+      <c r="K42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M42" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -2199,40 +2094,40 @@
         <v>53</v>
       </c>
       <c r="B43" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C43" t="n">
-        <v>47487.0</v>
+        <v>50691.0</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n" s="2">
-        <v>43439.0</v>
+        <v>44882.0</v>
       </c>
       <c r="H43" t="n" s="2">
-        <v>43258.0</v>
+        <v>44715.0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="J43" t="n">
-        <v>181.0</v>
+        <v>167.0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.39</v>
+        <v>0.976</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9204356412664035</v>
+        <v>-0.16980535095932275</v>
       </c>
       <c r="M43" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -2240,40 +2135,40 @@
         <v>54</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C44" t="n">
-        <v>47557.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n" s="2">
-        <v>43298.0</v>
+        <v>44736.0</v>
       </c>
       <c r="H44" t="n" s="2">
-        <v>43294.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.6076594131700637</v>
+        <v>-1.1073072669795128</v>
       </c>
       <c r="M44" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
@@ -2281,40 +2176,40 @@
         <v>55</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C45" t="n">
-        <v>47557.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n" s="2">
-        <v>43328.0</v>
+        <v>44742.0</v>
       </c>
       <c r="H45" t="n" s="2">
-        <v>43294.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.3969848253003578</v>
+        <v>-1.0546386200120863</v>
       </c>
       <c r="M45" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -2322,40 +2217,40 @@
         <v>56</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C46" t="n">
-        <v>47557.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n" s="2">
-        <v>43360.0</v>
+        <v>44743.0</v>
       </c>
       <c r="H46" t="n" s="2">
-        <v>43294.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.0</v>
+        <v>10.0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.9493013260772333</v>
+        <v>-1.0546386200120863</v>
       </c>
       <c r="M46" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
@@ -2363,40 +2258,40 @@
         <v>57</v>
       </c>
       <c r="B47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50731.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" t="n" s="2">
+        <v>44764.0</v>
+      </c>
+      <c r="H47" t="n" s="2">
+        <v>44733.0</v>
+      </c>
+      <c r="I47" t="n">
         <v>1.0</v>
       </c>
-      <c r="C47" t="n">
-        <v>47557.0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" t="n" s="2">
-        <v>43419.0</v>
-      </c>
-      <c r="H47" t="n" s="2">
-        <v>43294.0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.0</v>
-      </c>
       <c r="J47" t="n">
-        <v>125.0</v>
+        <v>31.0</v>
       </c>
       <c r="K47" t="n">
-        <v>1.06</v>
+        <v>0.75</v>
       </c>
       <c r="L47" t="n">
-        <v>0.05140296630386832</v>
+        <v>-0.764961061691241</v>
       </c>
       <c r="M47" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
@@ -2404,40 +2299,40 @@
         <v>58</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C48" t="n">
-        <v>47557.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n" s="2">
-        <v>43451.0</v>
+        <v>44795.0</v>
       </c>
       <c r="H48" t="n" s="2">
-        <v>43294.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I48" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="J48" t="n">
-        <v>157.0</v>
+        <v>62.0</v>
       </c>
       <c r="K48" t="n">
-        <v>1.28</v>
+        <v>0.94</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6307580829455587</v>
+        <v>-0.2646089155006904</v>
       </c>
       <c r="M48" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
@@ -2445,40 +2340,40 @@
         <v>59</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C49" t="n">
-        <v>47557.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n" s="2">
-        <v>43481.0</v>
+        <v>44826.0</v>
       </c>
       <c r="H49" t="n" s="2">
-        <v>43294.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I49" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="J49" t="n">
-        <v>187.0</v>
+        <v>93.0</v>
       </c>
       <c r="K49" t="n">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7887640238478381</v>
+        <v>0.130405936755008</v>
       </c>
       <c r="M49" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
@@ -2486,40 +2381,40 @@
         <v>60</v>
       </c>
       <c r="B50" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C50" t="n">
-        <v>48429.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n" s="2">
-        <v>43728.0</v>
+        <v>44828.0</v>
       </c>
       <c r="H50" t="n" s="2">
-        <v>43725.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.0</v>
+        <v>95.0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.51</v>
+        <v>1.12</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.3969848253003578</v>
+        <v>0.20940890720614766</v>
       </c>
       <c r="M50" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
@@ -2527,40 +2422,40 @@
         <v>61</v>
       </c>
       <c r="B51" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C51" t="n">
-        <v>48429.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n" s="2">
-        <v>43759.0</v>
+        <v>44855.0</v>
       </c>
       <c r="H51" t="n" s="2">
-        <v>43725.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J51" t="n">
-        <v>34.0</v>
+        <v>122.0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.65</v>
+        <v>1.31</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.028304296528373</v>
+        <v>0.7097610533966984</v>
       </c>
       <c r="M51" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
@@ -2568,40 +2463,40 @@
         <v>62</v>
       </c>
       <c r="B52" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C52" t="n">
-        <v>48429.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n" s="2">
-        <v>43788.0</v>
+        <v>44887.0</v>
       </c>
       <c r="H52" t="n" s="2">
-        <v>43725.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I52" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="J52" t="n">
-        <v>63.0</v>
+        <v>154.0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.78</v>
+        <v>1.48</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.6859580912401013</v>
+        <v>1.1574445526198225</v>
       </c>
       <c r="M52" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
@@ -2609,40 +2504,40 @@
         <v>63</v>
       </c>
       <c r="B53" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C53" t="n">
-        <v>48429.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n" s="2">
-        <v>43816.0</v>
+        <v>44895.0</v>
       </c>
       <c r="H53" t="n" s="2">
-        <v>43725.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I53" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="J53" t="n">
-        <v>91.0</v>
+        <v>162.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.91</v>
+        <v>1.5</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.34361188595182973</v>
+        <v>1.210113199587249</v>
       </c>
       <c r="M53" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
@@ -2650,40 +2545,40 @@
         <v>64</v>
       </c>
       <c r="B54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C54" t="n">
-        <v>48429.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n" s="2">
-        <v>43846.0</v>
+        <v>44902.0</v>
       </c>
       <c r="H54" t="n" s="2">
-        <v>43725.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I54" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="J54" t="n">
-        <v>121.0</v>
+        <v>169.0</v>
       </c>
       <c r="K54" t="n">
-        <v>1.06</v>
+        <v>1.52</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05140296630386832</v>
+        <v>1.2627818465546754</v>
       </c>
       <c r="M54" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
@@ -2691,40 +2586,40 @@
         <v>65</v>
       </c>
       <c r="B55" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C55" t="n">
-        <v>48429.0</v>
+        <v>50731.0</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n" s="2">
-        <v>43881.0</v>
+        <v>44924.0</v>
       </c>
       <c r="H55" t="n" s="2">
-        <v>43725.0</v>
+        <v>44733.0</v>
       </c>
       <c r="I55" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="J55" t="n">
-        <v>156.0</v>
+        <v>191.0</v>
       </c>
       <c r="K55" t="n">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6834267299129851</v>
+        <v>1.4997907579080945</v>
       </c>
       <c r="M55" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
@@ -2732,40 +2627,40 @@
         <v>66</v>
       </c>
       <c r="B56" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C56" t="n">
-        <v>48429.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n" s="2">
-        <v>43910.0</v>
+        <v>44742.0</v>
       </c>
       <c r="H56" t="n" s="2">
-        <v>43725.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I56" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J56" t="n">
-        <v>185.0</v>
+        <v>3.0</v>
       </c>
       <c r="K56" t="n">
-        <v>1.54</v>
+        <v>0.556</v>
       </c>
       <c r="L56" t="n">
-        <v>1.3154504935221019</v>
+        <v>-1.275846937275277</v>
       </c>
       <c r="M56" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
@@ -2776,37 +2671,37 @@
         <v>3.0</v>
       </c>
       <c r="C57" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n" s="2">
-        <v>44712.0</v>
+        <v>44748.0</v>
       </c>
       <c r="H57" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.2389788843980787</v>
+        <v>-1.1863102374306524</v>
       </c>
       <c r="M57" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
@@ -2817,37 +2712,37 @@
         <v>3.0</v>
       </c>
       <c r="C58" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F58" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n" s="2">
-        <v>44742.0</v>
+        <v>44749.0</v>
       </c>
       <c r="H58" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J58" t="n">
-        <v>35.0</v>
+        <v>10.0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.0019699730446598</v>
+        <v>-1.1863102374306524</v>
       </c>
       <c r="M58" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
@@ -2858,28 +2753,28 @@
         <v>3.0</v>
       </c>
       <c r="C59" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n" s="2">
         <v>44774.0</v>
       </c>
       <c r="H59" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I59" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J59" t="n">
-        <v>67.0</v>
+        <v>35.0</v>
       </c>
       <c r="K59" t="n">
         <v>0.72</v>
@@ -2888,7 +2783,7 @@
         <v>-0.8439640321423807</v>
       </c>
       <c r="M59" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
@@ -2899,37 +2794,37 @@
         <v>3.0</v>
       </c>
       <c r="C60" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n" s="2">
         <v>44804.0</v>
       </c>
       <c r="H60" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I60" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J60" t="n">
-        <v>97.0</v>
+        <v>65.0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.6069551207889617</v>
+        <v>-0.36994620943554296</v>
       </c>
       <c r="M60" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
@@ -2940,37 +2835,37 @@
         <v>3.0</v>
       </c>
       <c r="C61" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G61" t="n" s="2">
         <v>44834.0</v>
       </c>
       <c r="H61" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I61" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J61" t="n">
-        <v>127.0</v>
+        <v>95.0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.15927162156583746</v>
+        <v>-0.053934327630984574</v>
       </c>
       <c r="M61" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
@@ -2981,28 +2876,28 @@
         <v>3.0</v>
       </c>
       <c r="C62" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F62" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n" s="2">
         <v>44865.0</v>
       </c>
       <c r="H62" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I62" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J62" t="n">
-        <v>158.0</v>
+        <v>126.0</v>
       </c>
       <c r="K62" t="n">
         <v>1.17</v>
@@ -3011,7 +2906,7 @@
         <v>0.3410805246247132</v>
       </c>
       <c r="M62" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
@@ -3022,37 +2917,37 @@
         <v>3.0</v>
       </c>
       <c r="C63" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n" s="2">
-        <v>44872.0</v>
+        <v>44895.0</v>
       </c>
       <c r="H63" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I63" t="n">
         <v>5.0</v>
       </c>
       <c r="J63" t="n">
-        <v>165.0</v>
+        <v>156.0</v>
       </c>
       <c r="K63" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="L63" t="n">
-        <v>0.49908646552699254</v>
+        <v>0.6834267299129851</v>
       </c>
       <c r="M63" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64">
@@ -3063,37 +2958,37 @@
         <v>3.0</v>
       </c>
       <c r="C64" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F64" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n" s="2">
-        <v>44888.0</v>
+        <v>44902.0</v>
       </c>
       <c r="H64" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I64" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="J64" t="n">
-        <v>181.0</v>
+        <v>163.0</v>
       </c>
       <c r="K64" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="L64" t="n">
-        <v>1.0257729352012563</v>
+        <v>0.7887640238478381</v>
       </c>
       <c r="M64" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
@@ -3104,37 +2999,37 @@
         <v>3.0</v>
       </c>
       <c r="C65" t="n">
-        <v>50674.0</v>
+        <v>50740.0</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n" s="2">
-        <v>44902.0</v>
+        <v>44924.0</v>
       </c>
       <c r="H65" t="n" s="2">
-        <v>44707.0</v>
+        <v>44739.0</v>
       </c>
       <c r="I65" t="n">
         <v>6.0</v>
       </c>
       <c r="J65" t="n">
-        <v>195.0</v>
+        <v>185.0</v>
       </c>
       <c r="K65" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="L65" t="n">
-        <v>0.7624297003641248</v>
+        <v>1.104775905652396</v>
       </c>
       <c r="M65" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
@@ -3145,37 +3040,37 @@
         <v>3.0</v>
       </c>
       <c r="C66" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F66" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n" s="2">
-        <v>44719.0</v>
+        <v>44747.0</v>
       </c>
       <c r="H66" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I66" t="n">
         <v>0.0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="L66" t="n">
-        <v>-1.3179818548492181</v>
+        <v>-1.4759877957514975</v>
       </c>
       <c r="M66" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
@@ -3186,37 +3081,37 @@
         <v>3.0</v>
       </c>
       <c r="C67" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F67" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n" s="2">
-        <v>44725.0</v>
+        <v>44753.0</v>
       </c>
       <c r="H67" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
       </c>
       <c r="J67" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="L67" t="n">
-        <v>-1.1863102374306524</v>
+        <v>-1.423319148784071</v>
       </c>
       <c r="M67" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
@@ -3227,37 +3122,37 @@
         <v>3.0</v>
       </c>
       <c r="C68" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n" s="2">
-        <v>44750.0</v>
+        <v>44755.0</v>
       </c>
       <c r="H68" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J68" t="n">
-        <v>35.0</v>
+        <v>13.0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.72</v>
+        <v>0.49</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.8439640321423807</v>
+        <v>-1.4496534722677843</v>
       </c>
       <c r="M68" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
@@ -3268,37 +3163,37 @@
         <v>3.0</v>
       </c>
       <c r="C69" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n" s="2">
-        <v>44782.0</v>
+        <v>44778.0</v>
       </c>
       <c r="H69" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I69" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J69" t="n">
-        <v>67.0</v>
+        <v>36.0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.3172775624681165</v>
+        <v>-1.2389788843980787</v>
       </c>
       <c r="M69" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
@@ -3309,37 +3204,37 @@
         <v>3.0</v>
       </c>
       <c r="C70" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n" s="2">
-        <v>44813.0</v>
+        <v>44810.0</v>
       </c>
       <c r="H70" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I70" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J70" t="n">
-        <v>98.0</v>
+        <v>68.0</v>
       </c>
       <c r="K70" t="n">
-        <v>1.1</v>
+        <v>0.76</v>
       </c>
       <c r="L70" t="n">
-        <v>0.15674026023872123</v>
+        <v>-0.7386267382075278</v>
       </c>
       <c r="M70" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
@@ -3350,37 +3245,37 @@
         <v>3.0</v>
       </c>
       <c r="C71" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F71" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n" s="2">
-        <v>44841.0</v>
+        <v>44840.0</v>
       </c>
       <c r="H71" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I71" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J71" t="n">
-        <v>126.0</v>
+        <v>98.0</v>
       </c>
       <c r="K71" t="n">
-        <v>1.2</v>
+        <v>0.97</v>
       </c>
       <c r="L71" t="n">
-        <v>0.42008349507585285</v>
+        <v>-0.1856059450495507</v>
       </c>
       <c r="M71" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72">
@@ -3391,37 +3286,37 @@
         <v>3.0</v>
       </c>
       <c r="C72" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F72" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n" s="2">
-        <v>44872.0</v>
+        <v>44841.0</v>
       </c>
       <c r="H72" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I72" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J72" t="n">
-        <v>157.0</v>
+        <v>99.0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.15927162156583746</v>
+        <v>-0.1856059450495507</v>
       </c>
       <c r="M72" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
@@ -3432,37 +3327,37 @@
         <v>3.0</v>
       </c>
       <c r="C73" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F73" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n" s="2">
-        <v>44873.0</v>
+        <v>44872.0</v>
       </c>
       <c r="H73" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I73" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J73" t="n">
-        <v>158.0</v>
+        <v>130.0</v>
       </c>
       <c r="K73" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="L73" t="n">
-        <v>0.15674026023872123</v>
+        <v>0.2357432306898603</v>
       </c>
       <c r="M73" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
@@ -3473,37 +3368,37 @@
         <v>3.0</v>
       </c>
       <c r="C74" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F74" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n" s="2">
-        <v>44876.0</v>
+        <v>44900.0</v>
       </c>
       <c r="H74" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I74" t="n">
         <v>5.0</v>
       </c>
       <c r="J74" t="n">
-        <v>161.0</v>
+        <v>158.0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.938</v>
+        <v>1.3</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.269875780197433</v>
+        <v>0.6834267299129851</v>
       </c>
       <c r="M74" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
@@ -3514,37 +3409,37 @@
         <v>3.0</v>
       </c>
       <c r="C75" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F75" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n" s="2">
-        <v>44877.0</v>
+        <v>44908.0</v>
       </c>
       <c r="H75" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I75" t="n">
         <v>5.0</v>
       </c>
       <c r="J75" t="n">
-        <v>162.0</v>
+        <v>166.0</v>
       </c>
       <c r="K75" t="n">
-        <v>0.948</v>
+        <v>1.38</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.2435414567137198</v>
+        <v>0.8941013177826903</v>
       </c>
       <c r="M75" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
@@ -3555,37 +3450,37 @@
         <v>3.0</v>
       </c>
       <c r="C76" t="n">
-        <v>50691.0</v>
+        <v>50752.0</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n" s="2">
-        <v>44879.0</v>
+        <v>44938.0</v>
       </c>
       <c r="H76" t="n" s="2">
-        <v>44715.0</v>
+        <v>44742.0</v>
       </c>
       <c r="I76" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="J76" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="K76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L76" t="e">
-        <v>#N/A</v>
+        <v>196.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.1574445526198225</v>
       </c>
       <c r="M76" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
@@ -3596,37 +3491,37 @@
         <v>3.0</v>
       </c>
       <c r="C77" t="n">
-        <v>50691.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n" s="2">
-        <v>44882.0</v>
+        <v>44763.0</v>
       </c>
       <c r="H77" t="n" s="2">
-        <v>44715.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I77" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="J77" t="n">
-        <v>167.0</v>
+        <v>3.0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.976</v>
+        <v>0.52</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.16980535095932275</v>
+        <v>-1.3706505018166446</v>
       </c>
       <c r="M77" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78">
@@ -3637,37 +3532,37 @@
         <v>3.0</v>
       </c>
       <c r="C78" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F78" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n" s="2">
-        <v>44736.0</v>
+        <v>44769.0</v>
       </c>
       <c r="H78" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I78" t="n">
         <v>0.0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="L78" t="n">
-        <v>-1.1073072669795128</v>
+        <v>-1.3443161783329314</v>
       </c>
       <c r="M78" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
@@ -3678,37 +3573,37 @@
         <v>3.0</v>
       </c>
       <c r="C79" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F79" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n" s="2">
-        <v>44742.0</v>
+        <v>44771.0</v>
       </c>
       <c r="H79" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="L79" t="n">
-        <v>-1.0546386200120863</v>
+        <v>-1.3179818548492181</v>
       </c>
       <c r="M79" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80">
@@ -3719,37 +3614,37 @@
         <v>3.0</v>
       </c>
       <c r="C80" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F80" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n" s="2">
-        <v>44743.0</v>
+        <v>44795.0</v>
       </c>
       <c r="H80" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J80" t="n">
-        <v>10.0</v>
+        <v>35.0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="L80" t="n">
-        <v>-1.0546386200120863</v>
+        <v>-1.1599759139469392</v>
       </c>
       <c r="M80" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
@@ -3760,37 +3655,37 @@
         <v>3.0</v>
       </c>
       <c r="C81" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n" s="2">
-        <v>44764.0</v>
+        <v>44802.0</v>
       </c>
       <c r="H81" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I81" t="n">
         <v>1.0</v>
       </c>
       <c r="J81" t="n">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.764961061691241</v>
+        <v>-1.1073072669795128</v>
       </c>
       <c r="M81" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
@@ -3801,37 +3696,37 @@
         <v>3.0</v>
       </c>
       <c r="C82" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F82" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n" s="2">
-        <v>44795.0</v>
+        <v>44826.0</v>
       </c>
       <c r="H82" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I82" t="n">
         <v>2.0</v>
       </c>
       <c r="J82" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.2646089155006904</v>
+        <v>-0.8439640321423807</v>
       </c>
       <c r="M82" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
@@ -3842,37 +3737,37 @@
         <v>3.0</v>
       </c>
       <c r="C83" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n" s="2">
-        <v>44826.0</v>
+        <v>44855.0</v>
       </c>
       <c r="H83" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I83" t="n">
         <v>3.0</v>
       </c>
       <c r="J83" t="n">
-        <v>93.0</v>
+        <v>95.0</v>
       </c>
       <c r="K83" t="n">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="L83" t="n">
-        <v>0.130405936755008</v>
+        <v>-0.5542864738215355</v>
       </c>
       <c r="M83" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84">
@@ -3883,37 +3778,37 @@
         <v>3.0</v>
       </c>
       <c r="C84" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n" s="2">
-        <v>44828.0</v>
+        <v>44887.0</v>
       </c>
       <c r="H84" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I84" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J84" t="n">
-        <v>95.0</v>
+        <v>127.0</v>
       </c>
       <c r="K84" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="L84" t="n">
-        <v>0.20940890720614766</v>
+        <v>0.025068642820155095</v>
       </c>
       <c r="M84" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
@@ -3924,37 +3819,37 @@
         <v>3.0</v>
       </c>
       <c r="C85" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E85" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n" s="2">
-        <v>44855.0</v>
+        <v>44908.0</v>
       </c>
       <c r="H85" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I85" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J85" t="n">
-        <v>122.0</v>
+        <v>148.0</v>
       </c>
       <c r="K85" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="L85" t="n">
-        <v>0.7097610533966984</v>
+        <v>0.3937491715921396</v>
       </c>
       <c r="M85" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
@@ -3965,1431 +3860,37 @@
         <v>3.0</v>
       </c>
       <c r="C86" t="n">
-        <v>50731.0</v>
+        <v>50776.0</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F86" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n" s="2">
-        <v>44887.0</v>
+        <v>44938.0</v>
       </c>
       <c r="H86" t="n" s="2">
-        <v>44733.0</v>
+        <v>44760.0</v>
       </c>
       <c r="I86" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="J86" t="n">
-        <v>154.0</v>
+        <v>178.0</v>
       </c>
       <c r="K86" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="L86" t="n">
-        <v>1.1574445526198225</v>
+        <v>0.7887640238478381</v>
       </c>
       <c r="M86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>50731.0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" t="s">
-        <v>134</v>
-      </c>
-      <c r="F87" t="s">
-        <v>135</v>
-      </c>
-      <c r="G87" t="n" s="2">
-        <v>44895.0</v>
-      </c>
-      <c r="H87" t="n" s="2">
-        <v>44733.0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>162.0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1.210113199587249</v>
-      </c>
-      <c r="M87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>98</v>
-      </c>
-      <c r="B88" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>50731.0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" t="s">
-        <v>134</v>
-      </c>
-      <c r="F88" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" t="n" s="2">
-        <v>44902.0</v>
-      </c>
-      <c r="H88" t="n" s="2">
-        <v>44733.0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1.2627818465546754</v>
-      </c>
-      <c r="M88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>50731.0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" t="s">
-        <v>134</v>
-      </c>
-      <c r="F89" t="s">
-        <v>135</v>
-      </c>
-      <c r="G89" t="n" s="2">
-        <v>44924.0</v>
-      </c>
-      <c r="H89" t="n" s="2">
-        <v>44733.0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>191.0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.4997907579080945</v>
-      </c>
-      <c r="M89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" t="s">
-        <v>134</v>
-      </c>
-      <c r="F90" t="s">
-        <v>135</v>
-      </c>
-      <c r="G90" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="H90" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-1.275846937275277</v>
-      </c>
-      <c r="M90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D91" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" t="s">
-        <v>134</v>
-      </c>
-      <c r="F91" t="s">
-        <v>135</v>
-      </c>
-      <c r="G91" t="n" s="2">
-        <v>44748.0</v>
-      </c>
-      <c r="H91" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-1.1863102374306524</v>
-      </c>
-      <c r="M91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" t="s">
-        <v>134</v>
-      </c>
-      <c r="F92" t="s">
-        <v>135</v>
-      </c>
-      <c r="G92" t="n" s="2">
-        <v>44749.0</v>
-      </c>
-      <c r="H92" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L92" t="n">
-        <v>-1.1863102374306524</v>
-      </c>
-      <c r="M92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>103</v>
-      </c>
-      <c r="B93" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" t="s">
-        <v>134</v>
-      </c>
-      <c r="F93" t="s">
-        <v>135</v>
-      </c>
-      <c r="G93" t="n" s="2">
-        <v>44774.0</v>
-      </c>
-      <c r="H93" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L93" t="n">
-        <v>-0.8439640321423807</v>
-      </c>
-      <c r="M93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>131</v>
-      </c>
-      <c r="E94" t="s">
-        <v>134</v>
-      </c>
-      <c r="F94" t="s">
-        <v>135</v>
-      </c>
-      <c r="G94" t="n" s="2">
-        <v>44804.0</v>
-      </c>
-      <c r="H94" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-0.36994620943554296</v>
-      </c>
-      <c r="M94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F95" t="s">
-        <v>135</v>
-      </c>
-      <c r="G95" t="n" s="2">
-        <v>44834.0</v>
-      </c>
-      <c r="H95" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L95" t="n">
-        <v>-0.053934327630984574</v>
-      </c>
-      <c r="M95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>131</v>
-      </c>
-      <c r="E96" t="s">
-        <v>134</v>
-      </c>
-      <c r="F96" t="s">
-        <v>135</v>
-      </c>
-      <c r="G96" t="n" s="2">
-        <v>44865.0</v>
-      </c>
-      <c r="H96" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.3410805246247132</v>
-      </c>
-      <c r="M96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>131</v>
-      </c>
-      <c r="E97" t="s">
-        <v>134</v>
-      </c>
-      <c r="F97" t="s">
-        <v>135</v>
-      </c>
-      <c r="G97" t="n" s="2">
-        <v>44895.0</v>
-      </c>
-      <c r="H97" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.6834267299129851</v>
-      </c>
-      <c r="M97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>131</v>
-      </c>
-      <c r="E98" t="s">
-        <v>134</v>
-      </c>
-      <c r="F98" t="s">
-        <v>135</v>
-      </c>
-      <c r="G98" t="n" s="2">
-        <v>44902.0</v>
-      </c>
-      <c r="H98" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.7887640238478381</v>
-      </c>
-      <c r="M98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>50740.0</v>
-      </c>
-      <c r="D99" t="s">
-        <v>131</v>
-      </c>
-      <c r="E99" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99" t="s">
-        <v>135</v>
-      </c>
-      <c r="G99" t="n" s="2">
-        <v>44924.0</v>
-      </c>
-      <c r="H99" t="n" s="2">
-        <v>44739.0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>185.0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1.104775905652396</v>
-      </c>
-      <c r="M99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" t="s">
-        <v>134</v>
-      </c>
-      <c r="F100" t="s">
-        <v>135</v>
-      </c>
-      <c r="G100" t="n" s="2">
-        <v>44747.0</v>
-      </c>
-      <c r="H100" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="L100" t="n">
-        <v>-1.4759877957514975</v>
-      </c>
-      <c r="M100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>131</v>
-      </c>
-      <c r="E101" t="s">
-        <v>134</v>
-      </c>
-      <c r="F101" t="s">
-        <v>135</v>
-      </c>
-      <c r="G101" t="n" s="2">
-        <v>44753.0</v>
-      </c>
-      <c r="H101" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L101" t="n">
-        <v>-1.423319148784071</v>
-      </c>
-      <c r="M101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>131</v>
-      </c>
-      <c r="E102" t="s">
-        <v>134</v>
-      </c>
-      <c r="F102" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" t="n" s="2">
-        <v>44755.0</v>
-      </c>
-      <c r="H102" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L102" t="n">
-        <v>-1.4496534722677843</v>
-      </c>
-      <c r="M102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D103" t="s">
-        <v>131</v>
-      </c>
-      <c r="E103" t="s">
-        <v>134</v>
-      </c>
-      <c r="F103" t="s">
-        <v>135</v>
-      </c>
-      <c r="G103" t="n" s="2">
-        <v>44778.0</v>
-      </c>
-      <c r="H103" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L103" t="n">
-        <v>-1.2389788843980787</v>
-      </c>
-      <c r="M103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D104" t="s">
-        <v>131</v>
-      </c>
-      <c r="E104" t="s">
-        <v>134</v>
-      </c>
-      <c r="F104" t="s">
-        <v>135</v>
-      </c>
-      <c r="G104" t="n" s="2">
-        <v>44810.0</v>
-      </c>
-      <c r="H104" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L104" t="n">
-        <v>-0.7386267382075278</v>
-      </c>
-      <c r="M104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>115</v>
-      </c>
-      <c r="B105" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>131</v>
-      </c>
-      <c r="E105" t="s">
-        <v>134</v>
-      </c>
-      <c r="F105" t="s">
-        <v>135</v>
-      </c>
-      <c r="G105" t="n" s="2">
-        <v>44840.0</v>
-      </c>
-      <c r="H105" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L105" t="n">
-        <v>-0.1856059450495507</v>
-      </c>
-      <c r="M105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D106" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" t="s">
-        <v>134</v>
-      </c>
-      <c r="F106" t="s">
-        <v>135</v>
-      </c>
-      <c r="G106" t="n" s="2">
-        <v>44841.0</v>
-      </c>
-      <c r="H106" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L106" t="n">
-        <v>-0.1856059450495507</v>
-      </c>
-      <c r="M106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>131</v>
-      </c>
-      <c r="E107" t="s">
-        <v>134</v>
-      </c>
-      <c r="F107" t="s">
-        <v>135</v>
-      </c>
-      <c r="G107" t="n" s="2">
-        <v>44872.0</v>
-      </c>
-      <c r="H107" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.2357432306898603</v>
-      </c>
-      <c r="M107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>118</v>
-      </c>
-      <c r="B108" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" t="s">
-        <v>134</v>
-      </c>
-      <c r="F108" t="s">
-        <v>135</v>
-      </c>
-      <c r="G108" t="n" s="2">
-        <v>44900.0</v>
-      </c>
-      <c r="H108" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.6834267299129851</v>
-      </c>
-      <c r="M108" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>119</v>
-      </c>
-      <c r="B109" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>131</v>
-      </c>
-      <c r="E109" t="s">
-        <v>134</v>
-      </c>
-      <c r="F109" t="s">
-        <v>135</v>
-      </c>
-      <c r="G109" t="n" s="2">
-        <v>44908.0</v>
-      </c>
-      <c r="H109" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>166.0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.8941013177826903</v>
-      </c>
-      <c r="M109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>120</v>
-      </c>
-      <c r="B110" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>50752.0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>131</v>
-      </c>
-      <c r="E110" t="s">
-        <v>134</v>
-      </c>
-      <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="n" s="2">
-        <v>44938.0</v>
-      </c>
-      <c r="H110" t="n" s="2">
-        <v>44742.0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1.1574445526198225</v>
-      </c>
-      <c r="M110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D111" t="s">
-        <v>131</v>
-      </c>
-      <c r="E111" t="s">
-        <v>134</v>
-      </c>
-      <c r="F111" t="s">
-        <v>135</v>
-      </c>
-      <c r="G111" t="n" s="2">
-        <v>44763.0</v>
-      </c>
-      <c r="H111" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L111" t="n">
-        <v>-1.3706505018166446</v>
-      </c>
-      <c r="M111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>122</v>
-      </c>
-      <c r="B112" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D112" t="s">
-        <v>131</v>
-      </c>
-      <c r="E112" t="s">
-        <v>134</v>
-      </c>
-      <c r="F112" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" t="n" s="2">
-        <v>44769.0</v>
-      </c>
-      <c r="H112" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L112" t="n">
-        <v>-1.3443161783329314</v>
-      </c>
-      <c r="M112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>131</v>
-      </c>
-      <c r="E113" t="s">
-        <v>134</v>
-      </c>
-      <c r="F113" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" t="n" s="2">
-        <v>44771.0</v>
-      </c>
-      <c r="H113" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L113" t="n">
-        <v>-1.3179818548492181</v>
-      </c>
-      <c r="M113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>124</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D114" t="s">
-        <v>131</v>
-      </c>
-      <c r="E114" t="s">
-        <v>134</v>
-      </c>
-      <c r="F114" t="s">
-        <v>135</v>
-      </c>
-      <c r="G114" t="n" s="2">
-        <v>44795.0</v>
-      </c>
-      <c r="H114" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L114" t="n">
-        <v>-1.1599759139469392</v>
-      </c>
-      <c r="M114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>125</v>
-      </c>
-      <c r="B115" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D115" t="s">
-        <v>131</v>
-      </c>
-      <c r="E115" t="s">
-        <v>134</v>
-      </c>
-      <c r="F115" t="s">
-        <v>135</v>
-      </c>
-      <c r="G115" t="n" s="2">
-        <v>44802.0</v>
-      </c>
-      <c r="H115" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L115" t="n">
-        <v>-1.1073072669795128</v>
-      </c>
-      <c r="M115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D116" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" t="s">
-        <v>134</v>
-      </c>
-      <c r="F116" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" t="n" s="2">
-        <v>44826.0</v>
-      </c>
-      <c r="H116" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L116" t="n">
-        <v>-0.8439640321423807</v>
-      </c>
-      <c r="M116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>127</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E117" t="s">
-        <v>134</v>
-      </c>
-      <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" t="n" s="2">
-        <v>44855.0</v>
-      </c>
-      <c r="H117" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="L117" t="n">
-        <v>-0.5542864738215355</v>
-      </c>
-      <c r="M117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>128</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D118" t="s">
-        <v>131</v>
-      </c>
-      <c r="E118" t="s">
-        <v>134</v>
-      </c>
-      <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="n" s="2">
-        <v>44887.0</v>
-      </c>
-      <c r="H118" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0.025068642820155095</v>
-      </c>
-      <c r="M118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>129</v>
-      </c>
-      <c r="B119" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>131</v>
-      </c>
-      <c r="E119" t="s">
-        <v>134</v>
-      </c>
-      <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="n" s="2">
-        <v>44908.0</v>
-      </c>
-      <c r="H119" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.3937491715921396</v>
-      </c>
-      <c r="M119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>130</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>50776.0</v>
-      </c>
-      <c r="D120" t="s">
-        <v>131</v>
-      </c>
-      <c r="E120" t="s">
-        <v>134</v>
-      </c>
-      <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="n" s="2">
-        <v>44938.0</v>
-      </c>
-      <c r="H120" t="n" s="2">
-        <v>44760.0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.7887640238478381</v>
-      </c>
-      <c r="M120" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
